--- a/po_analysis_by_asin/B0BH9DXY38_po_data.xlsx
+++ b/po_analysis_by_asin/B0BH9DXY38_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,225 +452,545 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>44934.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>900</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45299</v>
+        <v>44941.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45306</v>
+        <v>44948.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>342</v>
+        <v>972</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45320</v>
+        <v>44955.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>18</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45327</v>
+        <v>44962.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>522</v>
+        <v>402</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45397</v>
+        <v>44990.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>2100</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45404</v>
+        <v>44997.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>132</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45411</v>
+        <v>45004.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>516</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45418</v>
+        <v>45011.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>792</v>
+        <v>3372</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45425</v>
+        <v>45025.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>264</v>
+        <v>756</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45432</v>
+        <v>45039.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>468</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45439</v>
+        <v>45046.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>636</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45446</v>
+        <v>45067.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>816</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45453</v>
+        <v>45081.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>1248</v>
+        <v>240</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45460</v>
+        <v>45088.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>900</v>
+        <v>660</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45467</v>
+        <v>45095.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>552</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45481</v>
+        <v>45102.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>828</v>
+        <v>336</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45509</v>
+        <v>45109.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>84</v>
+        <v>720</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45516</v>
+        <v>45116.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>348</v>
+        <v>714</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45523</v>
+        <v>45123.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>1008</v>
+        <v>654</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45530</v>
+        <v>45130.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>816</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45551</v>
+        <v>45137.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>360</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45558</v>
+        <v>45144.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>1272</v>
+        <v>450</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45565</v>
+        <v>45151.99999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>300</v>
+        <v>312</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45572</v>
+        <v>45158.99999999999</v>
       </c>
       <c r="B26" t="n">
-        <v>1752</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45579</v>
+        <v>45165.99999999999</v>
       </c>
       <c r="B27" t="n">
-        <v>3816</v>
+        <v>234</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45586</v>
+        <v>45179.99999999999</v>
       </c>
       <c r="B28" t="n">
-        <v>2088</v>
+        <v>822</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45593</v>
+        <v>45186.99999999999</v>
       </c>
       <c r="B29" t="n">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45207.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>1902</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>1932</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45263.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45305.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45403.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B49" t="n">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B50" t="n">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45431.99999999999</v>
+      </c>
+      <c r="B51" t="n">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45438.99999999999</v>
+      </c>
+      <c r="B52" t="n">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B53" t="n">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45452.99999999999</v>
+      </c>
+      <c r="B54" t="n">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B55" t="n">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B56" t="n">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B57" t="n">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B58" t="n">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B59" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45522.99999999999</v>
+      </c>
+      <c r="B60" t="n">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B61" t="n">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B62" t="n">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B63" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B64" t="n">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B65" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B66" t="n">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B67" t="n">
+        <v>3816</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B68" t="n">
+        <v>2088</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B69" t="n">
         <v>1752</v>
       </c>
     </row>
@@ -685,7 +1005,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -707,73 +1027,169 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>44957.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>1278</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45323</v>
+        <v>44985.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>522</v>
+        <v>402</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45383</v>
+        <v>45016.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>2232</v>
+        <v>5604</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45413</v>
+        <v>45046.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>2676</v>
+        <v>2286</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45444</v>
+        <v>45077.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>3516</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45474</v>
+        <v>45107.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>828</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45505</v>
+        <v>45138.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>2256</v>
+        <v>2562</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45536</v>
+        <v>45169.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>1632</v>
+        <v>2214</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45566</v>
+        <v>45199.99999999999</v>
       </c>
       <c r="B10" t="n">
+        <v>3096</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45230.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>4518</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45260.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>3366</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45291.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45322.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45351.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45412.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>2232</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45443.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>2676</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>3516</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45504.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45535.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>2256</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45565.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45596.99999999999</v>
+      </c>
+      <c r="B22" t="n">
         <v>9708</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B0BH9DXY38_po_data.xlsx
+++ b/po_analysis_by_asin/B0BH9DXY38_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -1021,7 +1022,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -1191,6 +1192,1111 @@
       </c>
       <c r="B22" t="n">
         <v>9708</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D77"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>44934.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>536</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-451.1103726907901</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1484.190099723694</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>44941.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>541</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-381.2405740727347</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1489.360270606441</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>44948.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>547</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-393.8449651314277</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1480.160776447115</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>44955.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>552</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-379.1415381900345</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1525.609952188099</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>44962.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>557</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-436.2775986683242</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1465.50088364395</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>44990.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>578</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-370.3286166855503</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1493.272965508834</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>44997.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>584</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-341.557430860952</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1571.089553341598</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45004.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>589</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-388.2891186994665</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1552.210421155645</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45011.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>594</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-338.5450057348278</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1639.422945497007</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45025.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>605</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-278.4334386220742</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1554.738365922371</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45039.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>615</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-244.8635608251109</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1586.417382905146</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45046.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>621</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-383.3981447075282</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1553.575801290722</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45067.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>637</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-274.1893057694791</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1573.11083181097</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45081.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>647</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-285.9872741922529</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1582.201448089284</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45088.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>652</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-312.7924631985493</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1599.346745236295</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45095.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>658</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-302.4125431402269</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1591.8699398821</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45102.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>663</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-297.6333661396986</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1576.121311201682</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45109.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>668</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-408.8206693047049</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1615.246307599122</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45116.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>674</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-380.5973006427542</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1601.906781226941</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45123.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>679</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-309.1177047435612</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1693.2958702026</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45130.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>684</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-261.5576796538203</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1576.205061085093</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45137.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>689</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-257.9903904359527</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1612.587060756734</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45144.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>695</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-274.4756466199734</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1678.530899128802</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45151.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>700</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-238.5368743858807</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1597.901861656718</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45158.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>705</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-186.6031932482897</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1684.167300458852</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45165.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>711</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-244.9434629423955</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1716.055345115474</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45179.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>721</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-250.1194911851618</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1690.362382499033</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>727</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-261.6492281899672</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1671.497549507202</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>732</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-247.8994083198549</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1731.820713169017</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>737</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-230.8991548770761</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1671.302409139538</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45207.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>742</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-235.2708750832266</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1706.318975063748</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>748</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-205.8685595202358</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1686.976265907868</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>753</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-189.8356705124136</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1675.8021668613</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>758</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-217.8506235436414</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1717.155000602488</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>764</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-220.4401278479138</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1725.342529417069</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>769</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-187.3582541065503</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1717.033731888069</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>774</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-182.6226299476634</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1686.992568217247</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>779</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-110.3174756697013</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1735.177320027163</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45263.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>785</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-133.0131600809226</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1706.24792026145</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>795</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-189.3895146727392</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1746.526264791298</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>811</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-137.9537087611872</v>
+      </c>
+      <c r="D42" t="n">
+        <v>1765.291510620813</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45305.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>817</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-74.54186150942688</v>
+      </c>
+      <c r="D43" t="n">
+        <v>1735.972195566829</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>822</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-132.4362693125459</v>
+      </c>
+      <c r="D44" t="n">
+        <v>1733.254191000826</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>832</v>
+      </c>
+      <c r="C45" t="n">
+        <v>-169.6114836548221</v>
+      </c>
+      <c r="D45" t="n">
+        <v>1819.257267941574</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>838</v>
+      </c>
+      <c r="C46" t="n">
+        <v>-90.50440758460685</v>
+      </c>
+      <c r="D46" t="n">
+        <v>1819.112168228465</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45403.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>891</v>
+      </c>
+      <c r="C47" t="n">
+        <v>-17.88467730007453</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1791.015204558234</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>896</v>
+      </c>
+      <c r="C48" t="n">
+        <v>-30.60439914063287</v>
+      </c>
+      <c r="D48" t="n">
+        <v>1891.15187501829</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B49" t="n">
+        <v>901</v>
+      </c>
+      <c r="C49" t="n">
+        <v>-54.22823494102234</v>
+      </c>
+      <c r="D49" t="n">
+        <v>1854.01464492524</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B50" t="n">
+        <v>907</v>
+      </c>
+      <c r="C50" t="n">
+        <v>-32.40733419614841</v>
+      </c>
+      <c r="D50" t="n">
+        <v>1799.465560947466</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45431.99999999999</v>
+      </c>
+      <c r="B51" t="n">
+        <v>912</v>
+      </c>
+      <c r="C51" t="n">
+        <v>-66.42096398270839</v>
+      </c>
+      <c r="D51" t="n">
+        <v>1804.233618886565</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45438.99999999999</v>
+      </c>
+      <c r="B52" t="n">
+        <v>917</v>
+      </c>
+      <c r="C52" t="n">
+        <v>-27.64821714416603</v>
+      </c>
+      <c r="D52" t="n">
+        <v>1839.675851974034</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B53" t="n">
+        <v>922</v>
+      </c>
+      <c r="C53" t="n">
+        <v>-11.77158366526069</v>
+      </c>
+      <c r="D53" t="n">
+        <v>1891.556900957179</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45452.99999999999</v>
+      </c>
+      <c r="B54" t="n">
+        <v>928</v>
+      </c>
+      <c r="C54" t="n">
+        <v>-19.15621604466707</v>
+      </c>
+      <c r="D54" t="n">
+        <v>1920.430266579096</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B55" t="n">
+        <v>933</v>
+      </c>
+      <c r="C55" t="n">
+        <v>-35.39926555053554</v>
+      </c>
+      <c r="D55" t="n">
+        <v>1918.611405728718</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B56" t="n">
+        <v>938</v>
+      </c>
+      <c r="C56" t="n">
+        <v>-2.833850978264937</v>
+      </c>
+      <c r="D56" t="n">
+        <v>1874.290714475989</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B57" t="n">
+        <v>944</v>
+      </c>
+      <c r="C57" t="n">
+        <v>68.27519036822582</v>
+      </c>
+      <c r="D57" t="n">
+        <v>1914.825849704518</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B58" t="n">
+        <v>954</v>
+      </c>
+      <c r="C58" t="n">
+        <v>11.01462485420477</v>
+      </c>
+      <c r="D58" t="n">
+        <v>1959.735393354487</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B59" t="n">
+        <v>975</v>
+      </c>
+      <c r="C59" t="n">
+        <v>67.21794822755254</v>
+      </c>
+      <c r="D59" t="n">
+        <v>1918.402761915914</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45522.99999999999</v>
+      </c>
+      <c r="B60" t="n">
+        <v>981</v>
+      </c>
+      <c r="C60" t="n">
+        <v>-3.841608952173154</v>
+      </c>
+      <c r="D60" t="n">
+        <v>1930.428378374679</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B61" t="n">
+        <v>986</v>
+      </c>
+      <c r="C61" t="n">
+        <v>6.247980681770808</v>
+      </c>
+      <c r="D61" t="n">
+        <v>1907.347188865172</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B62" t="n">
+        <v>991</v>
+      </c>
+      <c r="C62" t="n">
+        <v>42.27112847326548</v>
+      </c>
+      <c r="D62" t="n">
+        <v>1961.146882282961</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B63" t="n">
+        <v>1007</v>
+      </c>
+      <c r="C63" t="n">
+        <v>-6.846006386785565</v>
+      </c>
+      <c r="D63" t="n">
+        <v>1899.081594579177</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B64" t="n">
+        <v>1012</v>
+      </c>
+      <c r="C64" t="n">
+        <v>88.61192707610367</v>
+      </c>
+      <c r="D64" t="n">
+        <v>1975.289075863381</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B65" t="n">
+        <v>1018</v>
+      </c>
+      <c r="C65" t="n">
+        <v>46.5237702958051</v>
+      </c>
+      <c r="D65" t="n">
+        <v>2034.386273828083</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B66" t="n">
+        <v>1023</v>
+      </c>
+      <c r="C66" t="n">
+        <v>85.54186408073039</v>
+      </c>
+      <c r="D66" t="n">
+        <v>1940.56151267927</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B67" t="n">
+        <v>1028</v>
+      </c>
+      <c r="C67" t="n">
+        <v>77.0398321262694</v>
+      </c>
+      <c r="D67" t="n">
+        <v>1986.514649358315</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B68" t="n">
+        <v>1034</v>
+      </c>
+      <c r="C68" t="n">
+        <v>97.00220913396772</v>
+      </c>
+      <c r="D68" t="n">
+        <v>1993.47306249839</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B69" t="n">
+        <v>1039</v>
+      </c>
+      <c r="C69" t="n">
+        <v>31.05479167084502</v>
+      </c>
+      <c r="D69" t="n">
+        <v>2014.026716481661</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>45606.99999999999</v>
+      </c>
+      <c r="B70" t="n">
+        <v>1044</v>
+      </c>
+      <c r="C70" t="n">
+        <v>76.54844048084956</v>
+      </c>
+      <c r="D70" t="n">
+        <v>1988.538409707064</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B71" t="n">
+        <v>1049</v>
+      </c>
+      <c r="C71" t="n">
+        <v>91.57927621587417</v>
+      </c>
+      <c r="D71" t="n">
+        <v>1996.011157222936</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>45620.99999999999</v>
+      </c>
+      <c r="B72" t="n">
+        <v>1055</v>
+      </c>
+      <c r="C72" t="n">
+        <v>119.3961052447058</v>
+      </c>
+      <c r="D72" t="n">
+        <v>2028.576463457578</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>45627.99999999999</v>
+      </c>
+      <c r="B73" t="n">
+        <v>1060</v>
+      </c>
+      <c r="C73" t="n">
+        <v>88.68434852104447</v>
+      </c>
+      <c r="D73" t="n">
+        <v>1956.689632062236</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B74" t="n">
+        <v>1065</v>
+      </c>
+      <c r="C74" t="n">
+        <v>119.4016264357154</v>
+      </c>
+      <c r="D74" t="n">
+        <v>2039.425093158243</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B75" t="n">
+        <v>1071</v>
+      </c>
+      <c r="C75" t="n">
+        <v>172.7388426866139</v>
+      </c>
+      <c r="D75" t="n">
+        <v>2090.584417208542</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>45648.99999999999</v>
+      </c>
+      <c r="B76" t="n">
+        <v>1076</v>
+      </c>
+      <c r="C76" t="n">
+        <v>84.45752485298722</v>
+      </c>
+      <c r="D76" t="n">
+        <v>2092.542157659684</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>45655.99999999999</v>
+      </c>
+      <c r="B77" t="n">
+        <v>1081</v>
+      </c>
+      <c r="C77" t="n">
+        <v>76.60147940295141</v>
+      </c>
+      <c r="D77" t="n">
+        <v>2073.338707564757</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0BH9DXY38_po_data.xlsx
+++ b/po_analysis_by_asin/B0BH9DXY38_po_data.xlsx
@@ -1205,7 +1205,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D77"/>
+  <dimension ref="A1:B77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1224,16 +1224,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -1242,12 +1232,6 @@
       <c r="B2" t="n">
         <v>536</v>
       </c>
-      <c r="C2" t="n">
-        <v>-451.1103726907901</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1484.190099723694</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -1256,12 +1240,6 @@
       <c r="B3" t="n">
         <v>541</v>
       </c>
-      <c r="C3" t="n">
-        <v>-381.2405740727347</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1489.360270606441</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -1270,12 +1248,6 @@
       <c r="B4" t="n">
         <v>547</v>
       </c>
-      <c r="C4" t="n">
-        <v>-393.8449651314277</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1480.160776447115</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -1284,12 +1256,6 @@
       <c r="B5" t="n">
         <v>552</v>
       </c>
-      <c r="C5" t="n">
-        <v>-379.1415381900345</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1525.609952188099</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -1298,12 +1264,6 @@
       <c r="B6" t="n">
         <v>557</v>
       </c>
-      <c r="C6" t="n">
-        <v>-436.2775986683242</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1465.50088364395</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -1312,12 +1272,6 @@
       <c r="B7" t="n">
         <v>578</v>
       </c>
-      <c r="C7" t="n">
-        <v>-370.3286166855503</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1493.272965508834</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -1326,12 +1280,6 @@
       <c r="B8" t="n">
         <v>584</v>
       </c>
-      <c r="C8" t="n">
-        <v>-341.557430860952</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1571.089553341598</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -1340,12 +1288,6 @@
       <c r="B9" t="n">
         <v>589</v>
       </c>
-      <c r="C9" t="n">
-        <v>-388.2891186994665</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1552.210421155645</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1354,12 +1296,6 @@
       <c r="B10" t="n">
         <v>594</v>
       </c>
-      <c r="C10" t="n">
-        <v>-338.5450057348278</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1639.422945497007</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1368,12 +1304,6 @@
       <c r="B11" t="n">
         <v>605</v>
       </c>
-      <c r="C11" t="n">
-        <v>-278.4334386220742</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1554.738365922371</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1382,12 +1312,6 @@
       <c r="B12" t="n">
         <v>615</v>
       </c>
-      <c r="C12" t="n">
-        <v>-244.8635608251109</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1586.417382905146</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1396,12 +1320,6 @@
       <c r="B13" t="n">
         <v>621</v>
       </c>
-      <c r="C13" t="n">
-        <v>-383.3981447075282</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1553.575801290722</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1410,12 +1328,6 @@
       <c r="B14" t="n">
         <v>637</v>
       </c>
-      <c r="C14" t="n">
-        <v>-274.1893057694791</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1573.11083181097</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1424,12 +1336,6 @@
       <c r="B15" t="n">
         <v>647</v>
       </c>
-      <c r="C15" t="n">
-        <v>-285.9872741922529</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1582.201448089284</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1438,12 +1344,6 @@
       <c r="B16" t="n">
         <v>652</v>
       </c>
-      <c r="C16" t="n">
-        <v>-312.7924631985493</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1599.346745236295</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1452,12 +1352,6 @@
       <c r="B17" t="n">
         <v>658</v>
       </c>
-      <c r="C17" t="n">
-        <v>-302.4125431402269</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1591.8699398821</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1466,12 +1360,6 @@
       <c r="B18" t="n">
         <v>663</v>
       </c>
-      <c r="C18" t="n">
-        <v>-297.6333661396986</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1576.121311201682</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1480,12 +1368,6 @@
       <c r="B19" t="n">
         <v>668</v>
       </c>
-      <c r="C19" t="n">
-        <v>-408.8206693047049</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1615.246307599122</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1494,12 +1376,6 @@
       <c r="B20" t="n">
         <v>674</v>
       </c>
-      <c r="C20" t="n">
-        <v>-380.5973006427542</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1601.906781226941</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1508,12 +1384,6 @@
       <c r="B21" t="n">
         <v>679</v>
       </c>
-      <c r="C21" t="n">
-        <v>-309.1177047435612</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1693.2958702026</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1522,12 +1392,6 @@
       <c r="B22" t="n">
         <v>684</v>
       </c>
-      <c r="C22" t="n">
-        <v>-261.5576796538203</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1576.205061085093</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1536,12 +1400,6 @@
       <c r="B23" t="n">
         <v>689</v>
       </c>
-      <c r="C23" t="n">
-        <v>-257.9903904359527</v>
-      </c>
-      <c r="D23" t="n">
-        <v>1612.587060756734</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1550,12 +1408,6 @@
       <c r="B24" t="n">
         <v>695</v>
       </c>
-      <c r="C24" t="n">
-        <v>-274.4756466199734</v>
-      </c>
-      <c r="D24" t="n">
-        <v>1678.530899128802</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1564,12 +1416,6 @@
       <c r="B25" t="n">
         <v>700</v>
       </c>
-      <c r="C25" t="n">
-        <v>-238.5368743858807</v>
-      </c>
-      <c r="D25" t="n">
-        <v>1597.901861656718</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1578,12 +1424,6 @@
       <c r="B26" t="n">
         <v>705</v>
       </c>
-      <c r="C26" t="n">
-        <v>-186.6031932482897</v>
-      </c>
-      <c r="D26" t="n">
-        <v>1684.167300458852</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1592,12 +1432,6 @@
       <c r="B27" t="n">
         <v>711</v>
       </c>
-      <c r="C27" t="n">
-        <v>-244.9434629423955</v>
-      </c>
-      <c r="D27" t="n">
-        <v>1716.055345115474</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1606,12 +1440,6 @@
       <c r="B28" t="n">
         <v>721</v>
       </c>
-      <c r="C28" t="n">
-        <v>-250.1194911851618</v>
-      </c>
-      <c r="D28" t="n">
-        <v>1690.362382499033</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1620,12 +1448,6 @@
       <c r="B29" t="n">
         <v>727</v>
       </c>
-      <c r="C29" t="n">
-        <v>-261.6492281899672</v>
-      </c>
-      <c r="D29" t="n">
-        <v>1671.497549507202</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1634,12 +1456,6 @@
       <c r="B30" t="n">
         <v>732</v>
       </c>
-      <c r="C30" t="n">
-        <v>-247.8994083198549</v>
-      </c>
-      <c r="D30" t="n">
-        <v>1731.820713169017</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1648,12 +1464,6 @@
       <c r="B31" t="n">
         <v>737</v>
       </c>
-      <c r="C31" t="n">
-        <v>-230.8991548770761</v>
-      </c>
-      <c r="D31" t="n">
-        <v>1671.302409139538</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1662,12 +1472,6 @@
       <c r="B32" t="n">
         <v>742</v>
       </c>
-      <c r="C32" t="n">
-        <v>-235.2708750832266</v>
-      </c>
-      <c r="D32" t="n">
-        <v>1706.318975063748</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1676,12 +1480,6 @@
       <c r="B33" t="n">
         <v>748</v>
       </c>
-      <c r="C33" t="n">
-        <v>-205.8685595202358</v>
-      </c>
-      <c r="D33" t="n">
-        <v>1686.976265907868</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1690,12 +1488,6 @@
       <c r="B34" t="n">
         <v>753</v>
       </c>
-      <c r="C34" t="n">
-        <v>-189.8356705124136</v>
-      </c>
-      <c r="D34" t="n">
-        <v>1675.8021668613</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -1704,12 +1496,6 @@
       <c r="B35" t="n">
         <v>758</v>
       </c>
-      <c r="C35" t="n">
-        <v>-217.8506235436414</v>
-      </c>
-      <c r="D35" t="n">
-        <v>1717.155000602488</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -1718,12 +1504,6 @@
       <c r="B36" t="n">
         <v>764</v>
       </c>
-      <c r="C36" t="n">
-        <v>-220.4401278479138</v>
-      </c>
-      <c r="D36" t="n">
-        <v>1725.342529417069</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -1732,12 +1512,6 @@
       <c r="B37" t="n">
         <v>769</v>
       </c>
-      <c r="C37" t="n">
-        <v>-187.3582541065503</v>
-      </c>
-      <c r="D37" t="n">
-        <v>1717.033731888069</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -1746,12 +1520,6 @@
       <c r="B38" t="n">
         <v>774</v>
       </c>
-      <c r="C38" t="n">
-        <v>-182.6226299476634</v>
-      </c>
-      <c r="D38" t="n">
-        <v>1686.992568217247</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -1760,12 +1528,6 @@
       <c r="B39" t="n">
         <v>779</v>
       </c>
-      <c r="C39" t="n">
-        <v>-110.3174756697013</v>
-      </c>
-      <c r="D39" t="n">
-        <v>1735.177320027163</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -1774,12 +1536,6 @@
       <c r="B40" t="n">
         <v>785</v>
       </c>
-      <c r="C40" t="n">
-        <v>-133.0131600809226</v>
-      </c>
-      <c r="D40" t="n">
-        <v>1706.24792026145</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -1788,12 +1544,6 @@
       <c r="B41" t="n">
         <v>795</v>
       </c>
-      <c r="C41" t="n">
-        <v>-189.3895146727392</v>
-      </c>
-      <c r="D41" t="n">
-        <v>1746.526264791298</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -1802,12 +1552,6 @@
       <c r="B42" t="n">
         <v>811</v>
       </c>
-      <c r="C42" t="n">
-        <v>-137.9537087611872</v>
-      </c>
-      <c r="D42" t="n">
-        <v>1765.291510620813</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -1816,12 +1560,6 @@
       <c r="B43" t="n">
         <v>817</v>
       </c>
-      <c r="C43" t="n">
-        <v>-74.54186150942688</v>
-      </c>
-      <c r="D43" t="n">
-        <v>1735.972195566829</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -1830,12 +1568,6 @@
       <c r="B44" t="n">
         <v>822</v>
       </c>
-      <c r="C44" t="n">
-        <v>-132.4362693125459</v>
-      </c>
-      <c r="D44" t="n">
-        <v>1733.254191000826</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -1844,12 +1576,6 @@
       <c r="B45" t="n">
         <v>832</v>
       </c>
-      <c r="C45" t="n">
-        <v>-169.6114836548221</v>
-      </c>
-      <c r="D45" t="n">
-        <v>1819.257267941574</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -1858,12 +1584,6 @@
       <c r="B46" t="n">
         <v>838</v>
       </c>
-      <c r="C46" t="n">
-        <v>-90.50440758460685</v>
-      </c>
-      <c r="D46" t="n">
-        <v>1819.112168228465</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -1872,12 +1592,6 @@
       <c r="B47" t="n">
         <v>891</v>
       </c>
-      <c r="C47" t="n">
-        <v>-17.88467730007453</v>
-      </c>
-      <c r="D47" t="n">
-        <v>1791.015204558234</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -1886,12 +1600,6 @@
       <c r="B48" t="n">
         <v>896</v>
       </c>
-      <c r="C48" t="n">
-        <v>-30.60439914063287</v>
-      </c>
-      <c r="D48" t="n">
-        <v>1891.15187501829</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -1900,12 +1608,6 @@
       <c r="B49" t="n">
         <v>901</v>
       </c>
-      <c r="C49" t="n">
-        <v>-54.22823494102234</v>
-      </c>
-      <c r="D49" t="n">
-        <v>1854.01464492524</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -1914,12 +1616,6 @@
       <c r="B50" t="n">
         <v>907</v>
       </c>
-      <c r="C50" t="n">
-        <v>-32.40733419614841</v>
-      </c>
-      <c r="D50" t="n">
-        <v>1799.465560947466</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -1928,12 +1624,6 @@
       <c r="B51" t="n">
         <v>912</v>
       </c>
-      <c r="C51" t="n">
-        <v>-66.42096398270839</v>
-      </c>
-      <c r="D51" t="n">
-        <v>1804.233618886565</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -1942,12 +1632,6 @@
       <c r="B52" t="n">
         <v>917</v>
       </c>
-      <c r="C52" t="n">
-        <v>-27.64821714416603</v>
-      </c>
-      <c r="D52" t="n">
-        <v>1839.675851974034</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -1956,12 +1640,6 @@
       <c r="B53" t="n">
         <v>922</v>
       </c>
-      <c r="C53" t="n">
-        <v>-11.77158366526069</v>
-      </c>
-      <c r="D53" t="n">
-        <v>1891.556900957179</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -1970,12 +1648,6 @@
       <c r="B54" t="n">
         <v>928</v>
       </c>
-      <c r="C54" t="n">
-        <v>-19.15621604466707</v>
-      </c>
-      <c r="D54" t="n">
-        <v>1920.430266579096</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -1984,12 +1656,6 @@
       <c r="B55" t="n">
         <v>933</v>
       </c>
-      <c r="C55" t="n">
-        <v>-35.39926555053554</v>
-      </c>
-      <c r="D55" t="n">
-        <v>1918.611405728718</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -1998,12 +1664,6 @@
       <c r="B56" t="n">
         <v>938</v>
       </c>
-      <c r="C56" t="n">
-        <v>-2.833850978264937</v>
-      </c>
-      <c r="D56" t="n">
-        <v>1874.290714475989</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -2012,12 +1672,6 @@
       <c r="B57" t="n">
         <v>944</v>
       </c>
-      <c r="C57" t="n">
-        <v>68.27519036822582</v>
-      </c>
-      <c r="D57" t="n">
-        <v>1914.825849704518</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -2026,12 +1680,6 @@
       <c r="B58" t="n">
         <v>954</v>
       </c>
-      <c r="C58" t="n">
-        <v>11.01462485420477</v>
-      </c>
-      <c r="D58" t="n">
-        <v>1959.735393354487</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -2040,12 +1688,6 @@
       <c r="B59" t="n">
         <v>975</v>
       </c>
-      <c r="C59" t="n">
-        <v>67.21794822755254</v>
-      </c>
-      <c r="D59" t="n">
-        <v>1918.402761915914</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -2054,12 +1696,6 @@
       <c r="B60" t="n">
         <v>981</v>
       </c>
-      <c r="C60" t="n">
-        <v>-3.841608952173154</v>
-      </c>
-      <c r="D60" t="n">
-        <v>1930.428378374679</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -2068,12 +1704,6 @@
       <c r="B61" t="n">
         <v>986</v>
       </c>
-      <c r="C61" t="n">
-        <v>6.247980681770808</v>
-      </c>
-      <c r="D61" t="n">
-        <v>1907.347188865172</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
@@ -2082,12 +1712,6 @@
       <c r="B62" t="n">
         <v>991</v>
       </c>
-      <c r="C62" t="n">
-        <v>42.27112847326548</v>
-      </c>
-      <c r="D62" t="n">
-        <v>1961.146882282961</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
@@ -2096,12 +1720,6 @@
       <c r="B63" t="n">
         <v>1007</v>
       </c>
-      <c r="C63" t="n">
-        <v>-6.846006386785565</v>
-      </c>
-      <c r="D63" t="n">
-        <v>1899.081594579177</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
@@ -2110,12 +1728,6 @@
       <c r="B64" t="n">
         <v>1012</v>
       </c>
-      <c r="C64" t="n">
-        <v>88.61192707610367</v>
-      </c>
-      <c r="D64" t="n">
-        <v>1975.289075863381</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
@@ -2124,12 +1736,6 @@
       <c r="B65" t="n">
         <v>1018</v>
       </c>
-      <c r="C65" t="n">
-        <v>46.5237702958051</v>
-      </c>
-      <c r="D65" t="n">
-        <v>2034.386273828083</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
@@ -2138,12 +1744,6 @@
       <c r="B66" t="n">
         <v>1023</v>
       </c>
-      <c r="C66" t="n">
-        <v>85.54186408073039</v>
-      </c>
-      <c r="D66" t="n">
-        <v>1940.56151267927</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
@@ -2152,12 +1752,6 @@
       <c r="B67" t="n">
         <v>1028</v>
       </c>
-      <c r="C67" t="n">
-        <v>77.0398321262694</v>
-      </c>
-      <c r="D67" t="n">
-        <v>1986.514649358315</v>
-      </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
@@ -2166,12 +1760,6 @@
       <c r="B68" t="n">
         <v>1034</v>
       </c>
-      <c r="C68" t="n">
-        <v>97.00220913396772</v>
-      </c>
-      <c r="D68" t="n">
-        <v>1993.47306249839</v>
-      </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
@@ -2180,12 +1768,6 @@
       <c r="B69" t="n">
         <v>1039</v>
       </c>
-      <c r="C69" t="n">
-        <v>31.05479167084502</v>
-      </c>
-      <c r="D69" t="n">
-        <v>2014.026716481661</v>
-      </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
@@ -2194,12 +1776,6 @@
       <c r="B70" t="n">
         <v>1044</v>
       </c>
-      <c r="C70" t="n">
-        <v>76.54844048084956</v>
-      </c>
-      <c r="D70" t="n">
-        <v>1988.538409707064</v>
-      </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
@@ -2208,12 +1784,6 @@
       <c r="B71" t="n">
         <v>1049</v>
       </c>
-      <c r="C71" t="n">
-        <v>91.57927621587417</v>
-      </c>
-      <c r="D71" t="n">
-        <v>1996.011157222936</v>
-      </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
@@ -2222,12 +1792,6 @@
       <c r="B72" t="n">
         <v>1055</v>
       </c>
-      <c r="C72" t="n">
-        <v>119.3961052447058</v>
-      </c>
-      <c r="D72" t="n">
-        <v>2028.576463457578</v>
-      </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
@@ -2236,12 +1800,6 @@
       <c r="B73" t="n">
         <v>1060</v>
       </c>
-      <c r="C73" t="n">
-        <v>88.68434852104447</v>
-      </c>
-      <c r="D73" t="n">
-        <v>1956.689632062236</v>
-      </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
@@ -2250,12 +1808,6 @@
       <c r="B74" t="n">
         <v>1065</v>
       </c>
-      <c r="C74" t="n">
-        <v>119.4016264357154</v>
-      </c>
-      <c r="D74" t="n">
-        <v>2039.425093158243</v>
-      </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
@@ -2264,12 +1816,6 @@
       <c r="B75" t="n">
         <v>1071</v>
       </c>
-      <c r="C75" t="n">
-        <v>172.7388426866139</v>
-      </c>
-      <c r="D75" t="n">
-        <v>2090.584417208542</v>
-      </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
@@ -2278,12 +1824,6 @@
       <c r="B76" t="n">
         <v>1076</v>
       </c>
-      <c r="C76" t="n">
-        <v>84.45752485298722</v>
-      </c>
-      <c r="D76" t="n">
-        <v>2092.542157659684</v>
-      </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
@@ -2291,12 +1831,6 @@
       </c>
       <c r="B77" t="n">
         <v>1081</v>
-      </c>
-      <c r="C77" t="n">
-        <v>76.60147940295141</v>
-      </c>
-      <c r="D77" t="n">
-        <v>2073.338707564757</v>
       </c>
     </row>
   </sheetData>
